--- a/content/plataformes/dadesref/entitats/PdGXV_Mesures.xlsx
+++ b/content/plataformes/dadesref/entitats/PdGXV_Mesures.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\P0092_PROJECTES\G0229_PROJECTES UNITAT\20.P0025_Direcció General de Coordinació Interdepartamental\PdG\PdG 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpina\portal\content\plataformes\dadesref\entitats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5EE8A58A-8701-4920-BE19-9DA50D03571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C73B71-6478-44BE-8CEA-170530A4EB44}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Mesures" sheetId="1" r:id="rId1"/>
@@ -837,8 +836,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,14 +1169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.28515625" style="4" customWidth="1"/>
@@ -1187,7 +1186,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.75">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>111</v>
       </c>
@@ -1216,7 +1215,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="45.75">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>112</v>
       </c>
@@ -1231,7 +1230,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30.75">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>113</v>
       </c>
@@ -1246,7 +1245,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30.75">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>114</v>
       </c>
@@ -1261,7 +1260,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="45.75">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>115</v>
       </c>
@@ -1276,7 +1275,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30.75">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>116</v>
       </c>
@@ -1291,7 +1290,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="60.75">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>117</v>
       </c>
@@ -1306,7 +1305,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="30.75">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>118</v>
       </c>
@@ -1321,7 +1320,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="45.75">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>119</v>
       </c>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="30.75">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1110</v>
       </c>
@@ -1351,7 +1350,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1111</v>
       </c>
@@ -1366,7 +1365,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1112</v>
       </c>
@@ -1381,7 +1380,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1113</v>
       </c>
@@ -1396,7 +1395,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="76.5">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1114</v>
       </c>
@@ -1411,7 +1410,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="30.75">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1115</v>
       </c>
@@ -1426,7 +1425,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="30.75">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1116</v>
       </c>
@@ -1441,7 +1440,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="45.75">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>121</v>
       </c>
@@ -1456,7 +1455,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="45.75">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>122</v>
       </c>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="30.75">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>123</v>
       </c>
@@ -1486,7 +1485,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="30.75">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>124</v>
       </c>
@@ -1501,7 +1500,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="45.75">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>125</v>
       </c>
@@ -1516,7 +1515,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="30.75">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>126</v>
       </c>
@@ -1531,7 +1530,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="30.75">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>127</v>
       </c>
@@ -1546,7 +1545,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>128</v>
       </c>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="30.75">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>129</v>
       </c>
@@ -1576,7 +1575,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="76.5">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>131</v>
       </c>
@@ -1591,7 +1590,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="106.5">
+    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>132</v>
       </c>
@@ -1606,7 +1605,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="45.75">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>133</v>
       </c>
@@ -1621,7 +1620,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>134</v>
       </c>
@@ -1636,7 +1635,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="45.75">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>135</v>
       </c>
@@ -1651,7 +1650,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="45.75">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>136</v>
       </c>
@@ -1666,7 +1665,7 @@
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>141</v>
       </c>
@@ -1681,7 +1680,7 @@
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="45.75">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>142</v>
       </c>
@@ -1696,7 +1695,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="45.75">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>143</v>
       </c>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="30.75">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>144</v>
       </c>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>145</v>
       </c>
@@ -1741,7 +1740,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="45.75">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>151</v>
       </c>
@@ -1756,7 +1755,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="45.75">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>152</v>
       </c>
@@ -1771,7 +1770,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="45.75">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>153</v>
       </c>
@@ -1786,7 +1785,7 @@
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="45.75">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>154</v>
       </c>
@@ -1801,7 +1800,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="30.75">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>155</v>
       </c>
@@ -1816,7 +1815,7 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="30.75">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>156</v>
       </c>
@@ -1831,7 +1830,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="45.75">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>157</v>
       </c>
@@ -1846,7 +1845,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="45.75">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>161</v>
       </c>
@@ -1861,7 +1860,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="30.75">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>162</v>
       </c>
@@ -1876,7 +1875,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="30.75">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>163</v>
       </c>
@@ -1891,7 +1890,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="60.75">
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>164</v>
       </c>
@@ -1906,7 +1905,7 @@
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="45.75">
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>165</v>
       </c>
@@ -1921,7 +1920,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="45.75">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>166</v>
       </c>
@@ -1936,7 +1935,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="30.75">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>171</v>
       </c>
@@ -1951,7 +1950,7 @@
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="30.75">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>172</v>
       </c>
@@ -1966,7 +1965,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="30.75">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>173</v>
       </c>
@@ -1981,7 +1980,7 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="30.75">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>174</v>
       </c>
@@ -1996,7 +1995,7 @@
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="45.75">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>175</v>
       </c>
@@ -2011,7 +2010,7 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="60.75">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>176</v>
       </c>
@@ -2026,7 +2025,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="30.75">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>177</v>
       </c>
@@ -2041,7 +2040,7 @@
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>178</v>
       </c>
@@ -2056,7 +2055,7 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="30.75">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>179</v>
       </c>
@@ -2071,7 +2070,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="30.75">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1710</v>
       </c>
@@ -2086,7 +2085,7 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1711</v>
       </c>
@@ -2101,7 +2100,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="45.75">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>181</v>
       </c>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="45.75">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>182</v>
       </c>
@@ -2131,7 +2130,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" ht="45.75">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>183</v>
       </c>
@@ -2146,7 +2145,7 @@
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="45.75">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>184</v>
       </c>
@@ -2161,7 +2160,7 @@
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="30.75">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>211</v>
       </c>
@@ -2176,7 +2175,7 @@
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="45.75">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>212</v>
       </c>
@@ -2191,7 +2190,7 @@
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>213</v>
       </c>
@@ -2206,7 +2205,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>214</v>
       </c>
@@ -2221,7 +2220,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="45.75">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>215</v>
       </c>
@@ -2236,7 +2235,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="45.75">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>221</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" ht="30.75">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>222</v>
       </c>
@@ -2266,7 +2265,7 @@
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" ht="30.75">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>223</v>
       </c>
@@ -2281,7 +2280,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" ht="30.75">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>224</v>
       </c>
@@ -2296,7 +2295,7 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" ht="45.75">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>225</v>
       </c>
@@ -2311,7 +2310,7 @@
       </c>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" ht="45.75">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>226</v>
       </c>
@@ -2326,7 +2325,7 @@
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>227</v>
       </c>
@@ -2341,7 +2340,7 @@
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="30.75">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>228</v>
       </c>
@@ -2356,7 +2355,7 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="30.75">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>231</v>
       </c>
@@ -2371,7 +2370,7 @@
       </c>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" ht="30.75">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>232</v>
       </c>
@@ -2386,7 +2385,7 @@
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" ht="45.75">
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>233</v>
       </c>
@@ -2401,7 +2400,7 @@
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="30.75">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -2416,7 +2415,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>235</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="30.75">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>236</v>
       </c>
@@ -2446,7 +2445,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="30.75">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>241</v>
       </c>
@@ -2461,7 +2460,7 @@
       </c>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="45.75">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>242</v>
       </c>
@@ -2476,7 +2475,7 @@
       </c>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" ht="30.75">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>243</v>
       </c>
@@ -2491,7 +2490,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="45.75">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>244</v>
       </c>
@@ -2506,7 +2505,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="30.75">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>245</v>
       </c>
@@ -2521,7 +2520,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="30.75">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>246</v>
       </c>
@@ -2536,7 +2535,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="30.75">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>247</v>
       </c>
@@ -2551,7 +2550,7 @@
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" ht="30.75">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>248</v>
       </c>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="30.75">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>251</v>
       </c>
@@ -2581,7 +2580,7 @@
       </c>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="30.75">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>252</v>
       </c>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="45.75">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>253</v>
       </c>
@@ -2611,7 +2610,7 @@
       </c>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" ht="30.75">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>254</v>
       </c>
@@ -2626,7 +2625,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="45.75">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>255</v>
       </c>
@@ -2641,7 +2640,7 @@
       </c>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" ht="30.75">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>256</v>
       </c>
@@ -2656,7 +2655,7 @@
       </c>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>257</v>
       </c>
@@ -2671,7 +2670,7 @@
       </c>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>261</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>262</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>263</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>264</v>
       </c>
@@ -2728,7 +2727,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>265</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>266</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>267</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>268</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30.75">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>311</v>
       </c>
@@ -2799,7 +2798,7 @@
       </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" ht="45.75">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>312</v>
       </c>
@@ -2814,7 +2813,7 @@
       </c>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="30.75">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>313</v>
       </c>
@@ -2829,7 +2828,7 @@
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" ht="30.75">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>314</v>
       </c>
@@ -2844,7 +2843,7 @@
       </c>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>315</v>
       </c>
@@ -2859,7 +2858,7 @@
       </c>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" ht="30.75">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>316</v>
       </c>
@@ -2874,7 +2873,7 @@
       </c>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" ht="45.75">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>321</v>
       </c>
@@ -2889,7 +2888,7 @@
       </c>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="45.75">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>322</v>
       </c>
@@ -2904,7 +2903,7 @@
       </c>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" ht="76.5">
+    <row r="116" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>323</v>
       </c>
@@ -2919,7 +2918,7 @@
       </c>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>324</v>
       </c>
@@ -2934,7 +2933,7 @@
       </c>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="45.75">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>325</v>
       </c>
@@ -2949,7 +2948,7 @@
       </c>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" ht="60.75">
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>326</v>
       </c>
@@ -2964,7 +2963,7 @@
       </c>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" ht="30.75">
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>327</v>
       </c>
@@ -2979,7 +2978,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" ht="60.75">
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>331</v>
       </c>
@@ -2994,7 +2993,7 @@
       </c>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" ht="45.75">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>332</v>
       </c>
@@ -3009,7 +3008,7 @@
       </c>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="45.75">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>333</v>
       </c>
@@ -3024,7 +3023,7 @@
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" ht="30.75">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>334</v>
       </c>
@@ -3039,7 +3038,7 @@
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" ht="30.75">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>335</v>
       </c>
@@ -3054,7 +3053,7 @@
       </c>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="30.75">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>336</v>
       </c>
@@ -3069,7 +3068,7 @@
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" ht="30.75">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>337</v>
       </c>
@@ -3084,7 +3083,7 @@
       </c>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>338</v>
       </c>
@@ -3099,7 +3098,7 @@
       </c>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" ht="60.75">
+    <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>341</v>
       </c>
@@ -3114,7 +3113,7 @@
       </c>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" ht="45.75">
+    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>342</v>
       </c>
@@ -3129,7 +3128,7 @@
       </c>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" ht="45.75">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>343</v>
       </c>
@@ -3144,7 +3143,7 @@
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" ht="45.75">
+    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>344</v>
       </c>
@@ -3159,7 +3158,7 @@
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" ht="30.75">
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>345</v>
       </c>
@@ -3174,7 +3173,7 @@
       </c>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="45.75">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>351</v>
       </c>
@@ -3189,7 +3188,7 @@
       </c>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" ht="45.75">
+    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>352</v>
       </c>
@@ -3204,7 +3203,7 @@
       </c>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" ht="137.25">
+    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>353</v>
       </c>
@@ -3219,7 +3218,7 @@
       </c>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" ht="60.75">
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>354</v>
       </c>
@@ -3234,7 +3233,7 @@
       </c>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" ht="45.75">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>355</v>
       </c>
@@ -3249,7 +3248,7 @@
       </c>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" ht="60.75">
+    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>356</v>
       </c>
@@ -3264,7 +3263,7 @@
       </c>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" ht="60.75">
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>357</v>
       </c>
@@ -3279,7 +3278,7 @@
       </c>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" ht="30.75">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>358</v>
       </c>
@@ -3294,7 +3293,7 @@
       </c>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" ht="30.75">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>359</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" ht="45.75">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>3510</v>
       </c>
@@ -3324,7 +3323,7 @@
       </c>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" ht="45.75">
+    <row r="144" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>3511</v>
       </c>
@@ -3339,7 +3338,7 @@
       </c>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" ht="45.75">
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>3512</v>
       </c>
@@ -3354,7 +3353,7 @@
       </c>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" ht="45.75">
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>3513</v>
       </c>
@@ -3369,7 +3368,7 @@
       </c>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" ht="30.75">
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>3514</v>
       </c>
@@ -3384,7 +3383,7 @@
       </c>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" ht="30.75">
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>3515</v>
       </c>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" ht="30.75">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>361</v>
       </c>
@@ -3414,7 +3413,7 @@
       </c>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" ht="45.75">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>362</v>
       </c>
@@ -3429,7 +3428,7 @@
       </c>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" ht="30.75">
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>363</v>
       </c>
@@ -3444,7 +3443,7 @@
       </c>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" ht="45.75">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>364</v>
       </c>
@@ -3459,7 +3458,7 @@
       </c>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" ht="30.75">
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>365</v>
       </c>
@@ -3474,7 +3473,7 @@
       </c>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" ht="30.75">
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>371</v>
       </c>
@@ -3489,7 +3488,7 @@
       </c>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" ht="30.75">
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>372</v>
       </c>
@@ -3504,7 +3503,7 @@
       </c>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" ht="30.75">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>373</v>
       </c>
@@ -3519,7 +3518,7 @@
       </c>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" ht="30.75">
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>374</v>
       </c>
@@ -3534,7 +3533,7 @@
       </c>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" ht="45.75">
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>375</v>
       </c>
@@ -3549,7 +3548,7 @@
       </c>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" ht="30.75">
+    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>376</v>
       </c>
@@ -3564,7 +3563,7 @@
       </c>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" ht="60.75">
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>381</v>
       </c>
@@ -3579,7 +3578,7 @@
       </c>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" ht="60.75">
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>382</v>
       </c>
@@ -3594,7 +3593,7 @@
       </c>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" ht="45.75">
+    <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>383</v>
       </c>
@@ -3609,7 +3608,7 @@
       </c>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" ht="45.75">
+    <row r="163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>384</v>
       </c>
@@ -3624,7 +3623,7 @@
       </c>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" ht="45.75">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>385</v>
       </c>
@@ -3639,7 +3638,7 @@
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" ht="45.75">
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>386</v>
       </c>
@@ -3654,7 +3653,7 @@
       </c>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="60.75">
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>387</v>
       </c>
@@ -3669,7 +3668,7 @@
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" ht="30.75">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>388</v>
       </c>
@@ -3684,7 +3683,7 @@
       </c>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" ht="45.75">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>389</v>
       </c>
@@ -3699,7 +3698,7 @@
       </c>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" ht="45.75">
+    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3810</v>
       </c>
@@ -3714,7 +3713,7 @@
       </c>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" ht="45.75">
+    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>3811</v>
       </c>
@@ -3729,7 +3728,7 @@
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" ht="60.75">
+    <row r="171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>3812</v>
       </c>
@@ -3744,7 +3743,7 @@
       </c>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" ht="45.75">
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>391</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" ht="30.75">
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>392</v>
       </c>
@@ -3774,7 +3773,7 @@
       </c>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" ht="45.75">
+    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>393</v>
       </c>
@@ -3789,7 +3788,7 @@
       </c>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" ht="45.75">
+    <row r="175" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>394</v>
       </c>
@@ -3804,7 +3803,7 @@
       </c>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="45.75">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>395</v>
       </c>
@@ -3819,7 +3818,7 @@
       </c>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>396</v>
       </c>
@@ -3834,7 +3833,7 @@
       </c>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" ht="30.75">
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>397</v>
       </c>
@@ -3849,7 +3848,7 @@
       </c>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" ht="30.75">
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3101</v>
       </c>
@@ -3864,7 +3863,7 @@
       </c>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3102</v>
       </c>
@@ -3879,7 +3878,7 @@
       </c>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="45.75">
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>3103</v>
       </c>
@@ -3894,7 +3893,7 @@
       </c>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="45.75">
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3104</v>
       </c>
@@ -3909,7 +3908,7 @@
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="30.75">
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>3105</v>
       </c>
@@ -3924,7 +3923,7 @@
       </c>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="45.75">
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>3106</v>
       </c>
@@ -3939,7 +3938,7 @@
       </c>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="30.75">
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>3107</v>
       </c>
@@ -3954,7 +3953,7 @@
       </c>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" ht="45.75">
+    <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>411</v>
       </c>
@@ -3969,7 +3968,7 @@
       </c>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="45.75">
+    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>412</v>
       </c>
@@ -3984,7 +3983,7 @@
       </c>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="30.75">
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>413</v>
       </c>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" ht="30.75">
+    <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>414</v>
       </c>
@@ -4014,7 +4013,7 @@
       </c>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" ht="30.75">
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>415</v>
       </c>
@@ -4029,7 +4028,7 @@
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" ht="30.75">
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>416</v>
       </c>
@@ -4044,7 +4043,7 @@
       </c>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="45.75">
+    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>417</v>
       </c>
@@ -4059,7 +4058,7 @@
       </c>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="30.75">
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>418</v>
       </c>
@@ -4074,7 +4073,7 @@
       </c>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="45.75">
+    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>421</v>
       </c>
@@ -4089,7 +4088,7 @@
       </c>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" ht="45.75">
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>422</v>
       </c>
@@ -4104,7 +4103,7 @@
       </c>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" ht="45.75">
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>423</v>
       </c>
@@ -4119,7 +4118,7 @@
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" ht="30.75">
+    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>424</v>
       </c>
@@ -4134,7 +4133,7 @@
       </c>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" ht="30.75">
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>425</v>
       </c>
@@ -4149,7 +4148,7 @@
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" ht="60.75">
+    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>431</v>
       </c>
@@ -4164,7 +4163,7 @@
       </c>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" ht="60.75">
+    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>432</v>
       </c>
@@ -4179,7 +4178,7 @@
       </c>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" ht="45.75">
+    <row r="201" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>433</v>
       </c>
@@ -4194,7 +4193,7 @@
       </c>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>434</v>
       </c>
@@ -4209,7 +4208,7 @@
       </c>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" ht="45.75">
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>435</v>
       </c>
@@ -4224,7 +4223,7 @@
       </c>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" ht="45.75">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>436</v>
       </c>
@@ -4239,7 +4238,7 @@
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" ht="30.75">
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>441</v>
       </c>
@@ -4254,7 +4253,7 @@
       </c>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" ht="30.75">
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>442</v>
       </c>
@@ -4269,7 +4268,7 @@
       </c>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" ht="30.75">
+    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>443</v>
       </c>
@@ -4284,7 +4283,7 @@
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" ht="30.75">
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>444</v>
       </c>
@@ -4299,7 +4298,7 @@
       </c>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="45.75">
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>445</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" ht="45.75">
+    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>446</v>
       </c>
@@ -4329,7 +4328,7 @@
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>447</v>
       </c>
@@ -4344,7 +4343,7 @@
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="45.75">
+    <row r="212" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>451</v>
       </c>
@@ -4359,7 +4358,7 @@
       </c>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" ht="30.75">
+    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>452</v>
       </c>
@@ -4374,7 +4373,7 @@
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" ht="30.75">
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>453</v>
       </c>
@@ -4389,7 +4388,7 @@
       </c>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" ht="45.75">
+    <row r="215" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>454</v>
       </c>
@@ -4404,7 +4403,7 @@
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" ht="60.75">
+    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>455</v>
       </c>
@@ -4419,7 +4418,7 @@
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" ht="30.75">
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>456</v>
       </c>
@@ -4434,7 +4433,7 @@
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>457</v>
       </c>
@@ -4449,7 +4448,7 @@
       </c>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" ht="45.75">
+    <row r="219" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>461</v>
       </c>
@@ -4464,7 +4463,7 @@
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" ht="30.75">
+    <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>462</v>
       </c>
@@ -4479,7 +4478,7 @@
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" ht="30.75">
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>463</v>
       </c>
@@ -4494,7 +4493,7 @@
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" ht="45.75">
+    <row r="222" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>464</v>
       </c>
@@ -4509,7 +4508,7 @@
       </c>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" ht="45.75">
+    <row r="223" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>465</v>
       </c>
@@ -4524,7 +4523,7 @@
       </c>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="30.75">
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>466</v>
       </c>
@@ -4539,7 +4538,7 @@
       </c>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" ht="45.75">
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>467</v>
       </c>
@@ -4554,7 +4553,7 @@
       </c>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" ht="30.75">
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>468</v>
       </c>
@@ -4569,7 +4568,7 @@
       </c>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>469</v>
       </c>
@@ -4584,7 +4583,7 @@
       </c>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" ht="30.75">
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>511</v>
       </c>
@@ -4599,7 +4598,7 @@
       </c>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" ht="45.75">
+    <row r="229" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>512</v>
       </c>
@@ -4614,7 +4613,7 @@
       </c>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" ht="30.75">
+    <row r="230" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>513</v>
       </c>
@@ -4629,7 +4628,7 @@
       </c>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" ht="30.75">
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>514</v>
       </c>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" ht="60.75">
+    <row r="232" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>521</v>
       </c>
@@ -4659,7 +4658,7 @@
       </c>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" ht="45.75">
+    <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>522</v>
       </c>
@@ -4674,7 +4673,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" ht="45.75">
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>523</v>
       </c>
@@ -4689,7 +4688,7 @@
       </c>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" ht="30.75">
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>524</v>
       </c>
@@ -4704,7 +4703,7 @@
       </c>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" ht="45.75">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>531</v>
       </c>
@@ -4719,7 +4718,7 @@
       </c>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" ht="45.75">
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>532</v>
       </c>
@@ -4734,7 +4733,7 @@
       </c>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>533</v>
       </c>
@@ -4749,7 +4748,7 @@
       </c>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" ht="45.75">
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>534</v>
       </c>
@@ -4764,7 +4763,7 @@
       </c>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" ht="30.75">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>535</v>
       </c>
@@ -4779,7 +4778,7 @@
       </c>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" ht="30.75">
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>536</v>
       </c>
@@ -4794,7 +4793,7 @@
       </c>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" ht="30.75">
+    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>537</v>
       </c>
@@ -4809,7 +4808,7 @@
       </c>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" ht="30.75">
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>538</v>
       </c>
@@ -4824,7 +4823,7 @@
       </c>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" ht="30.75">
+    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>539</v>
       </c>
@@ -4839,7 +4838,7 @@
       </c>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" ht="30.75">
+    <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>5310</v>
       </c>
@@ -4854,7 +4853,7 @@
       </c>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="30.75">
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>5311</v>
       </c>
@@ -4869,7 +4868,7 @@
       </c>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" ht="45.75">
+    <row r="247" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>541</v>
       </c>
@@ -4884,7 +4883,7 @@
       </c>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="30.75">
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>542</v>
       </c>
@@ -4899,7 +4898,7 @@
       </c>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" ht="30.75">
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>543</v>
       </c>
@@ -4914,7 +4913,7 @@
       </c>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" ht="30.75">
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>544</v>
       </c>
@@ -4929,7 +4928,7 @@
       </c>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" ht="45.75">
+    <row r="251" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>545</v>
       </c>
@@ -4944,7 +4943,7 @@
       </c>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>546</v>
       </c>
@@ -4959,7 +4958,7 @@
       </c>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>547</v>
       </c>
@@ -4974,7 +4973,7 @@
       </c>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" ht="45.75">
+    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>551</v>
       </c>
@@ -4989,7 +4988,7 @@
       </c>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" ht="45.75">
+    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>552</v>
       </c>
@@ -5004,7 +5003,7 @@
       </c>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" ht="30.75">
+    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>553</v>
       </c>
@@ -5019,7 +5018,7 @@
       </c>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" ht="30.75">
+    <row r="257" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>554</v>
       </c>
@@ -5034,7 +5033,7 @@
       </c>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" ht="45.75">
+    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>555</v>
       </c>
@@ -5049,7 +5048,7 @@
       </c>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" ht="45.75">
+    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>556</v>
       </c>
@@ -5064,7 +5063,7 @@
       </c>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" ht="30.75">
+    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>557</v>
       </c>
@@ -5079,7 +5078,7 @@
       </c>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" ht="30.75">
+    <row r="261" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>558</v>
       </c>
@@ -5094,104 +5093,123 @@
       </c>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B261" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B261"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="975764f6ad4851f62dc57c3657271973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a09df0a8653da91c10cb7921c3578835" ns2:_="" ns3:_="">
     <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
@@ -5408,33 +5426,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9680B8A3-1CDB-41B5-90A5-B0F47F5F87A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CDC84E-C4E8-4280-8004-70C3B841A891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00167578-8B47-4CF8-99A3-2CE19B60AA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00167578-8B47-4CF8-99A3-2CE19B60AA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CDC84E-C4E8-4280-8004-70C3B841A891}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9680B8A3-1CDB-41B5-90A5-B0F47F5F87A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>